--- a/CISC251_Projcet_Dataset_Dictionary.xlsx
+++ b/CISC251_Projcet_Dataset_Dictionary.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emanc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\University\Third Year - 2025-2026\CISC 251\Group Project\CISC-251-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A7C28B-6426-47BC-9EEA-DD3902C6AB35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3257F6D-81ED-49A7-B1D0-7D250A3BCAA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{C03AC748-1505-403E-932E-2DA22082D7D3}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{C03AC748-1505-403E-932E-2DA22082D7D3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,9 +128,6 @@
     <t>The NumberOfTimes90DaysLate variable represents the number of times a borrower has been 90 days or more past due on a bank payment/loan.</t>
   </si>
   <si>
-    <t>The NumberRealEstateLoansOrLines variable represnts the number of morgages and real estate loans (including home equity lines of credit) that a borrower currently has.</t>
-  </si>
-  <si>
     <t xml:space="preserve">The NumberOfOpenCreditLinesAndLoans variable represents the number of lines of credit and open loans (car loans, mortgage, etc.) a borrower currently has. </t>
   </si>
   <si>
@@ -141,6 +138,9 @@
   </si>
   <si>
     <t xml:space="preserve">The RevolvingUtilizationOfUnsecuredLines variable represents the ratio of the amount of credit a borrower is using from an unsecured personal line of credit (real estate and installment debt are not involved) compared to a borrowers total available credit.  </t>
+  </si>
+  <si>
+    <t>The NumberRealEstateLoansOrLines variable represents the number of morgages and real estate loans (including home equity lines of credit) that a borrower currently has.</t>
   </si>
 </sst>
 </file>
@@ -917,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E5BE9E-6362-4673-8AF4-C0B4B3B703F5}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="68" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="68" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -971,7 +971,7 @@
         <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>19</v>
@@ -1056,7 +1056,7 @@
         <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>19</v>
@@ -1082,7 +1082,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="126.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" ht="105.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>19</v>
@@ -1107,7 +1107,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>19</v>
@@ -1124,7 +1124,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>19</v>
